--- a/samples/xlsx/TestDatetimeSpanFormat_ClosedXml.xlsx
+++ b/samples/xlsx/TestDatetimeSpanFormat_ClosedXml.xlsx
@@ -58,20 +58,27 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -370,15 +377,18 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1:B1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1">
+    <x:row r="1" spans="1:2">
       <x:c r="A1" s="1">
-        <x:v>44274.8758969329</x:v>
+        <x:v>44275.9859064005</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="n">
+        <x:v>0.416666666666667</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
